--- a/2021/VISACOM-2021/Fase I - Planeacion y Riesgos/4900 Representaciones de la gerencia/Mayor general/patrimonio.xlsx
+++ b/2021/VISACOM-2021/Fase I - Planeacion y Riesgos/4900 Representaciones de la gerencia/Mayor general/patrimonio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>VISACOM S.A.</t>
   </si>
@@ -22,7 +22,7 @@
     <t>REPORTE: 3 - Patrimonio</t>
   </si>
   <si>
-    <t>Del 01/01/2021 al 30/09/2021</t>
+    <t>Del 01/10/2021 al 31/12/2021</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -74,30 +74,6 @@
   </si>
   <si>
     <t>SALDO ANTERIOR</t>
-  </si>
-  <si>
-    <t>3.1.6.1</t>
-  </si>
-  <si>
-    <t>Resultados Acumulados</t>
-  </si>
-  <si>
-    <t>31/03/2021</t>
-  </si>
-  <si>
-    <t>ASI 202103000009</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Reclasificacion resultado del ejercicio 2020.</t>
-  </si>
-  <si>
-    <t>3.1.7.1</t>
-  </si>
-  <si>
-    <t>Resultado del Ejercicio</t>
   </si>
 </sst>
 </file>
@@ -481,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,112 +594,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="5">
-        <v>-194877.87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="5">
-        <v>5184.41</v>
-      </c>
-      <c r="N10" s="5">
-        <v>-200062.28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="5">
-        <v>5184.41</v>
-      </c>
-      <c r="N12" s="5">
-        <v>5184.41</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
